--- a/assets/publications_database.xlsx
+++ b/assets/publications_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phongvi/googledrive/Data01/HUS_Pelletron/huspelletron.github.io/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phong/Data/Data03/HUSPelletron/huspelletron.github.io/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A981EFF5-936D-5A46-A119-8A605DFC6916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4A3B13-479A-A94D-AE7F-4DDB0B2625B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1460" windowWidth="25940" windowHeight="12700" xr2:uid="{097DE4A4-92F9-5448-B11E-5C67F8A0740E}"/>
+    <workbookView xWindow="-40000" yWindow="-3900" windowWidth="25940" windowHeight="12700" xr2:uid="{097DE4A4-92F9-5448-B11E-5C67F8A0740E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Nghia, Nguyen The and Van Loat, Bui and Mai, Vu Thanh</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>Unusual hydrogen implanted gold with lattice contraction at increased hydrogen content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoa, Bui Thi and Nghia, Nguyen The and Phong, Vi Ho and Anh, Tran The </t>
+  </si>
+  <si>
+    <t>Evaluation of Thick Target PIXE Analysis in the 5SDH-2 Pelletron Accelerator Facility at VNU University of Science</t>
+  </si>
+  <si>
+    <t>24--30</t>
   </si>
 </sst>
 </file>
@@ -550,13 +559,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA213EE-95E1-8A48-BCAA-B912CB221CF2}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -848,6 +860,35 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/publications_database.xlsx
+++ b/assets/publications_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phong/Data/Data03/HUSPelletron/huspelletron.github.io/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4A3B13-479A-A94D-AE7F-4DDB0B2625B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2D2C2D-B70A-4E45-A0A1-99E8396879C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40000" yWindow="-3900" windowWidth="25940" windowHeight="12700" xr2:uid="{097DE4A4-92F9-5448-B11E-5C67F8A0740E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Nghia, Nguyen The and Van Loat, Bui and Mai, Vu Thanh</t>
   </si>
@@ -193,6 +193,39 @@
   </si>
   <si>
     <t>24--30</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>https://maygiatoc.com/docs/publications/</t>
+  </si>
+  <si>
+    <t>https://vcgate.vnu.edu.vn/articles/using-resonant-nuclear-reaction-27al-p-g-28si-to-calibrate-beam-energy-for-pelletron-accelerator-5sdh-2-at-hanoi-university-of-science</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.15625/0868-3166/24/3S2/5013</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1088/1742-6596/627/1/012005</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.chemosphere.2015.11.104</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-019-55638-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1051/epjconf/201920608004</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jenvrad.2020.106189</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-021-21842-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25073/2588-1124/vnumap.4623</t>
   </si>
 </sst>
 </file>
@@ -559,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA213EE-95E1-8A48-BCAA-B912CB221CF2}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,7 +603,7 @@
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -598,8 +631,11 @@
       <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -627,8 +663,11 @@
       <c r="I2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -656,8 +695,11 @@
       <c r="I3">
         <v>2013</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -685,8 +727,11 @@
       <c r="I4">
         <v>2014</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -714,8 +759,11 @@
       <c r="I5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -743,8 +791,11 @@
       <c r="I6">
         <v>2016</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -772,8 +823,11 @@
       <c r="I7">
         <v>2019</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -801,8 +855,11 @@
       <c r="I8">
         <v>2019</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -830,8 +887,11 @@
       <c r="I9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -859,8 +919,11 @@
       <c r="I10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -887,6 +950,9 @@
       </c>
       <c r="I11">
         <v>2021</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/assets/publications_database.xlsx
+++ b/assets/publications_database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phong/Data/Data03/HUSPelletron/huspelletron.github.io/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2D2C2D-B70A-4E45-A0A1-99E8396879C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2C2C0E-762C-4A44-B3A2-468B48A114D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40000" yWindow="-3900" windowWidth="25940" windowHeight="12700" xr2:uid="{097DE4A4-92F9-5448-B11E-5C67F8A0740E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Nghia, Nguyen The and Van Loat, Bui and Mai, Vu Thanh</t>
   </si>
@@ -226,13 +226,28 @@
   </si>
   <si>
     <t>https://doi.org/10.25073/2588-1124/vnumap.4623</t>
+  </si>
+  <si>
+    <t>Le, Tien and Pham, Ha H and Nghia, Nguyen The and Nam, Nguyen H and Miyanaga, T and Tran, Duc H and Kang, Won-Nam</t>
+  </si>
+  <si>
+    <t>Ceramics International</t>
+  </si>
+  <si>
+    <t>in press</t>
+  </si>
+  <si>
+    <t>Effects of Sn-ion irradiation on local structure and flux pinning properties of MgB2 thin films</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ceramint.2022.09.252</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,6 +262,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -272,14 +301,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA213EE-95E1-8A48-BCAA-B912CB221CF2}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A12" sqref="A12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,7 +988,42 @@
         <v>63</v>
       </c>
     </row>
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2022</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J12" r:id="rId1" xr:uid="{FA6AE4A2-7C24-7C43-ACC8-E45C267A1659}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/publications_database.xlsx
+++ b/assets/publications_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phong/Data/Data03/HUSPelletron/huspelletron.github.io/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2C2C0E-762C-4A44-B3A2-468B48A114D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C9772B-D9A3-B64A-B55B-8807CF3D2516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40000" yWindow="-3900" windowWidth="25940" windowHeight="12700" xr2:uid="{097DE4A4-92F9-5448-B11E-5C67F8A0740E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>Nghia, Nguyen The and Van Loat, Bui and Mai, Vu Thanh</t>
   </si>
@@ -241,6 +241,21 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.ceramint.2022.09.252</t>
+  </si>
+  <si>
+    <t>Nguyen, Minh N and Dultz, Stefan and Meharg, Andrew and Pham, Quang V and Hoang, Anh N and Dam, Than TN and Nguyen, Van T and Nguyen, Khai M and Nguyen, Huan X and Nguyen, Nghia T</t>
+  </si>
+  <si>
+    <t>Geoderma</t>
+  </si>
+  <si>
+    <t>200--213</t>
+  </si>
+  <si>
+    <t>Phytolith content in Vietnamese paddy soils in relation to soil properties</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.geoderma.2018.07.027</t>
   </si>
 </sst>
 </file>
@@ -625,11 +640,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA213EE-95E1-8A48-BCAA-B912CB221CF2}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -862,167 +875,200 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>8004</v>
+      <c r="E8" t="s">
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="H8">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="I8">
         <v>2019</v>
       </c>
-      <c r="J8" t="s">
-        <v>60</v>
+      <c r="J8" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9">
-        <v>106189</v>
+        <v>8004</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I9">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10">
-        <v>1560</v>
+        <v>106189</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I10">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>1560</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I11">
         <v>2021</v>
       </c>
       <c r="J11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12">
+        <v>37</v>
+      </c>
+      <c r="I12">
+        <v>2021</v>
+      </c>
+      <c r="J12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>2022</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J12" r:id="rId1" xr:uid="{FA6AE4A2-7C24-7C43-ACC8-E45C267A1659}"/>
+    <hyperlink ref="J13" r:id="rId1" xr:uid="{FA6AE4A2-7C24-7C43-ACC8-E45C267A1659}"/>
+    <hyperlink ref="J8" r:id="rId2" xr:uid="{0D281018-1C51-7540-9959-3946019CCE29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/publications_database.xlsx
+++ b/assets/publications_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phong/Data/Data03/HUSPelletron/huspelletron.github.io/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C9772B-D9A3-B64A-B55B-8807CF3D2516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFC9ED0-4A0D-DA46-9D92-11675BCD1C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40000" yWindow="-3900" windowWidth="25940" windowHeight="12700" xr2:uid="{097DE4A4-92F9-5448-B11E-5C67F8A0740E}"/>
+    <workbookView xWindow="-46140" yWindow="1400" windowWidth="25940" windowHeight="12700" xr2:uid="{097DE4A4-92F9-5448-B11E-5C67F8A0740E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>Nghia, Nguyen The and Van Loat, Bui and Mai, Vu Thanh</t>
   </si>
@@ -256,6 +256,21 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.geoderma.2018.07.027</t>
+  </si>
+  <si>
+    <t>A comparison study of chemical compositions and sources of PM1. 0 and PM2. 5 in Hanoi</t>
+  </si>
+  <si>
+    <t>Hien, Pham Duy and Bac, Vuong Thu and Thinh, Nguyen Thi Hong and Anh, Ha Lan and Thang, Duong Duc and others</t>
+  </si>
+  <si>
+    <t>Aerosol and Air Quality Research</t>
+  </si>
+  <si>
+    <t>Taiwan Association for Aerosol Research</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4209/aaqr.210056</t>
   </si>
 </sst>
 </file>
@@ -640,9 +655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA213EE-95E1-8A48-BCAA-B912CB221CF2}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -881,7 +898,7 @@
         <v>70</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -913,7 +930,7 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -945,7 +962,7 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -977,7 +994,7 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1009,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1033,42 +1050,75 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>210056</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>2021</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>66</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>2022</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J13" r:id="rId1" xr:uid="{FA6AE4A2-7C24-7C43-ACC8-E45C267A1659}"/>
+    <hyperlink ref="J14" r:id="rId1" xr:uid="{FA6AE4A2-7C24-7C43-ACC8-E45C267A1659}"/>
     <hyperlink ref="J8" r:id="rId2" xr:uid="{0D281018-1C51-7540-9959-3946019CCE29}"/>
+    <hyperlink ref="J13" r:id="rId3" xr:uid="{811AB0D5-E77C-5A47-8913-9906BD2A6334}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/publications_database.xlsx
+++ b/assets/publications_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phong/Data/Data03/HUSPelletron/huspelletron.github.io/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFC9ED0-4A0D-DA46-9D92-11675BCD1C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F8827-5F5C-2E47-8BDD-DA431E236B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46140" yWindow="1400" windowWidth="25940" windowHeight="12700" xr2:uid="{097DE4A4-92F9-5448-B11E-5C67F8A0740E}"/>
+    <workbookView xWindow="-67860" yWindow="1220" windowWidth="25940" windowHeight="12700" xr2:uid="{097DE4A4-92F9-5448-B11E-5C67F8A0740E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
   <si>
     <t>Nghia, Nguyen The and Van Loat, Bui and Mai, Vu Thanh</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Ceramics International</t>
   </si>
   <si>
-    <t>in press</t>
-  </si>
-  <si>
     <t>Effects of Sn-ion irradiation on local structure and flux pinning properties of MgB2 thin films</t>
   </si>
   <si>
@@ -271,13 +268,25 @@
   </si>
   <si>
     <t>https://doi.org/10.4209/aaqr.210056</t>
+  </si>
+  <si>
+    <t>2715-2720</t>
+  </si>
+  <si>
+    <t>Pham, H.H., Le, T., Nguyen, T.N., Nam, N.H., Nguyen, N.T., Sohn, M.K., Kang, D.J., Park, T., Yun, J., Lee, Y. and Kim, J.,</t>
+  </si>
+  <si>
+    <t>20586-20593</t>
+  </si>
+  <si>
+    <t>Correlation between electron-phonon coupling and superconductivity of Sn2+ ion irradiated MgB2-thin films</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,6 +314,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -335,11 +350,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -655,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA213EE-95E1-8A48-BCAA-B912CB221CF2}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,10 +908,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
         <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -904,13 +920,13 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8">
         <v>333</v>
@@ -919,7 +935,7 @@
         <v>2019</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1052,10 +1068,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
         <v>75</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1067,10 +1083,10 @@
         <v>210056</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13">
         <v>21</v>
@@ -1079,7 +1095,7 @@
         <v>2021</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.25">
@@ -1092,26 +1108,58 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
-        <v>66</v>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14">
+        <v>49</v>
+      </c>
+      <c r="I14">
+        <v>2023</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>2022</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>68</v>
+    </row>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15">
+        <v>49</v>
+      </c>
+      <c r="I15">
+        <v>2023</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1119,6 +1167,7 @@
     <hyperlink ref="J14" r:id="rId1" xr:uid="{FA6AE4A2-7C24-7C43-ACC8-E45C267A1659}"/>
     <hyperlink ref="J8" r:id="rId2" xr:uid="{0D281018-1C51-7540-9959-3946019CCE29}"/>
     <hyperlink ref="J13" r:id="rId3" xr:uid="{811AB0D5-E77C-5A47-8913-9906BD2A6334}"/>
+    <hyperlink ref="J15" r:id="rId4" xr:uid="{E0B091F0-EA9E-3248-8F21-BB4C73642D26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/publications_database.xlsx
+++ b/assets/publications_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phong/Data/Data03/HUSPelletron/huspelletron.github.io/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F8827-5F5C-2E47-8BDD-DA431E236B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BEA138-4435-644B-8E9D-BD1D771B9988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67860" yWindow="1220" windowWidth="25940" windowHeight="12700" xr2:uid="{097DE4A4-92F9-5448-B11E-5C67F8A0740E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>Nghia, Nguyen The and Van Loat, Bui and Mai, Vu Thanh</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Correlation between electron-phonon coupling and superconductivity of Sn2+ ion irradiated MgB2-thin films</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ceramint.2023.03.188</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1127,7 @@
         <v>49</v>
       </c>
       <c r="I14">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>67</v>
@@ -1159,7 +1162,7 @@
         <v>2023</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1170,6 @@
     <hyperlink ref="J14" r:id="rId1" xr:uid="{FA6AE4A2-7C24-7C43-ACC8-E45C267A1659}"/>
     <hyperlink ref="J8" r:id="rId2" xr:uid="{0D281018-1C51-7540-9959-3946019CCE29}"/>
     <hyperlink ref="J13" r:id="rId3" xr:uid="{811AB0D5-E77C-5A47-8913-9906BD2A6334}"/>
-    <hyperlink ref="J15" r:id="rId4" xr:uid="{E0B091F0-EA9E-3248-8F21-BB4C73642D26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
